--- a/ges_health_study_app/dictionary_spanish.xlsx
+++ b/ges_health_study_app/dictionary_spanish.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sheenamartenies/Library/CloudStorage/Box-Box/Research/Projects/ges_health_study_app/ges_health_study_app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ABE4945-E5A0-E44D-ACDC-899F0D109FA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB0077AF-E7D3-C648-8717-9BA7D27B2B88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19980" yWindow="500" windowWidth="18380" windowHeight="19560" xr2:uid="{FBC012AF-A400-554A-B28E-7E1CB6FB8950}"/>
+    <workbookView xWindow="-20" yWindow="500" windowWidth="28800" windowHeight="16320" xr2:uid="{FBC012AF-A400-554A-B28E-7E1CB6FB8950}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -522,9 +522,6 @@
     <t>Años</t>
   </si>
   <si>
-    <t>Por 10.000</t>
-  </si>
-  <si>
     <t>per_10000</t>
   </si>
   <si>
@@ -754,6 +751,9 @@
   </si>
   <si>
     <t>porcentaje promedio de nacimientos únicos con bajo peso al nacer (&lt;2500 gramos), 2018-2022</t>
+  </si>
+  <si>
+    <t>Tasas por 10.000</t>
   </si>
 </sst>
 </file>
@@ -823,7 +823,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -832,7 +832,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1169,8 +1168,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEABDE7F-51DA-E349-ABBB-2A88FDA51C20}">
   <dimension ref="A1:L62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D11" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView tabSelected="1" topLeftCell="D28" workbookViewId="0">
+      <selection activeCell="I56" sqref="I56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1181,9 +1180,7 @@
     <col min="4" max="4" width="50.1640625" style="2" customWidth="1"/>
     <col min="5" max="5" width="23.33203125" style="2" customWidth="1"/>
     <col min="6" max="6" width="10.83203125" style="2" customWidth="1"/>
-    <col min="7" max="8" width="10.83203125" style="2"/>
-    <col min="9" max="9" width="10.83203125" style="6"/>
-    <col min="10" max="16384" width="10.83203125" style="2"/>
+    <col min="7" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
@@ -1211,7 +1208,7 @@
       <c r="H1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="2" t="s">
         <v>19</v>
       </c>
       <c r="J1" s="2" t="s">
@@ -1246,7 +1243,7 @@
       <c r="H2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="2" t="s">
         <v>57</v>
       </c>
       <c r="J2" s="2" t="s">
@@ -1281,7 +1278,7 @@
       <c r="H3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="2" t="s">
         <v>57</v>
       </c>
       <c r="J3" s="2" t="s">
@@ -1316,7 +1313,7 @@
       <c r="H4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="2" t="s">
         <v>57</v>
       </c>
       <c r="J4" s="2" t="s">
@@ -1351,7 +1348,7 @@
       <c r="H5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="I5" s="2" t="s">
         <v>57</v>
       </c>
       <c r="J5" s="2" t="s">
@@ -1386,7 +1383,7 @@
       <c r="H6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="I6" s="2" t="s">
         <v>57</v>
       </c>
       <c r="J6" s="2" t="s">
@@ -1421,7 +1418,7 @@
       <c r="H7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="I7" s="6" t="s">
+      <c r="I7" s="2" t="s">
         <v>57</v>
       </c>
       <c r="J7" s="2" t="s">
@@ -1456,7 +1453,7 @@
       <c r="H8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="I8" s="6" t="s">
+      <c r="I8" s="2" t="s">
         <v>57</v>
       </c>
       <c r="J8" s="2" t="s">
@@ -1494,7 +1491,7 @@
       <c r="H9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="I9" s="6" t="s">
+      <c r="I9" s="2" t="s">
         <v>57</v>
       </c>
       <c r="J9" s="2" t="s">
@@ -1529,7 +1526,7 @@
       <c r="H10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="I10" s="6" t="s">
+      <c r="I10" s="2" t="s">
         <v>57</v>
       </c>
       <c r="J10" s="2" t="s">
@@ -1564,7 +1561,7 @@
       <c r="H11" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="I11" s="6" t="s">
+      <c r="I11" s="2" t="s">
         <v>57</v>
       </c>
       <c r="J11" s="2" t="s">
@@ -1599,7 +1596,7 @@
       <c r="H12" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="I12" s="6" t="s">
+      <c r="I12" s="2" t="s">
         <v>58</v>
       </c>
       <c r="J12" s="2" t="s">
@@ -1634,7 +1631,7 @@
       <c r="H13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="I13" s="6" t="s">
+      <c r="I13" s="2" t="s">
         <v>58</v>
       </c>
       <c r="J13" s="2" t="s">
@@ -1669,7 +1666,7 @@
       <c r="H14" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="I14" s="6" t="s">
+      <c r="I14" s="2" t="s">
         <v>57</v>
       </c>
       <c r="J14" s="2" t="s">
@@ -1704,7 +1701,7 @@
       <c r="H15" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="I15" s="6" t="s">
+      <c r="I15" s="2" t="s">
         <v>59</v>
       </c>
       <c r="J15" s="2" t="s">
@@ -1742,7 +1739,7 @@
       <c r="H16" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="I16" s="6" t="s">
+      <c r="I16" s="2" t="s">
         <v>95</v>
       </c>
       <c r="J16" s="2" t="s">
@@ -1777,7 +1774,7 @@
       <c r="H17" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="I17" s="6" t="s">
+      <c r="I17" s="2" t="s">
         <v>59</v>
       </c>
       <c r="J17" s="2" t="s">
@@ -1815,7 +1812,7 @@
       <c r="H18" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="I18" s="6" t="s">
+      <c r="I18" s="2" t="s">
         <v>57</v>
       </c>
       <c r="J18" s="2" t="s">
@@ -1853,7 +1850,7 @@
       <c r="H19" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="I19" s="6" t="s">
+      <c r="I19" s="2" t="s">
         <v>124</v>
       </c>
       <c r="J19" s="2" t="s">
@@ -1891,7 +1888,7 @@
       <c r="H20" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="I20" s="6" t="s">
+      <c r="I20" s="2" t="s">
         <v>60</v>
       </c>
       <c r="J20" s="2" t="s">
@@ -1929,7 +1926,7 @@
       <c r="H21" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="I21" s="6" t="s">
+      <c r="I21" s="2" t="s">
         <v>124</v>
       </c>
       <c r="J21" s="2" t="s">
@@ -1967,7 +1964,7 @@
       <c r="H22" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="I22" s="6" t="s">
+      <c r="I22" s="2" t="s">
         <v>60</v>
       </c>
       <c r="J22" s="2" t="s">
@@ -2005,7 +2002,7 @@
       <c r="H23" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="I23" s="6" t="s">
+      <c r="I23" s="2" t="s">
         <v>60</v>
       </c>
       <c r="J23" s="2" t="s">
@@ -2043,7 +2040,7 @@
       <c r="H24" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="I24" s="6" t="s">
+      <c r="I24" s="2" t="s">
         <v>61</v>
       </c>
       <c r="J24" s="2" t="s">
@@ -2064,10 +2061,10 @@
         <v>126</v>
       </c>
       <c r="C25" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>157</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>158</v>
       </c>
       <c r="F25" t="s">
         <v>151</v>
@@ -2078,7 +2075,7 @@
       <c r="H25" t="s">
         <v>21</v>
       </c>
-      <c r="I25" s="6" t="s">
+      <c r="I25" s="2" t="s">
         <v>154</v>
       </c>
       <c r="J25" s="2" t="s">
@@ -2088,7 +2085,7 @@
         <v>27</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
@@ -2099,10 +2096,10 @@
         <v>127</v>
       </c>
       <c r="C26" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D26" s="4" t="s">
         <v>159</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>160</v>
       </c>
       <c r="E26" s="4"/>
       <c r="F26" t="s">
@@ -2114,7 +2111,7 @@
       <c r="H26" t="s">
         <v>21</v>
       </c>
-      <c r="I26" s="6" t="s">
+      <c r="I26" s="2" t="s">
         <v>57</v>
       </c>
       <c r="J26" s="2" t="s">
@@ -2124,7 +2121,7 @@
         <v>23</v>
       </c>
       <c r="L26" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
@@ -2135,10 +2132,10 @@
         <v>128</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F27" t="s">
         <v>152</v>
@@ -2149,7 +2146,7 @@
       <c r="H27" t="s">
         <v>21</v>
       </c>
-      <c r="I27" s="6" t="s">
+      <c r="I27" s="2" t="s">
         <v>57</v>
       </c>
       <c r="J27" s="2" t="s">
@@ -2159,7 +2156,7 @@
         <v>23</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
@@ -2170,10 +2167,10 @@
         <v>129</v>
       </c>
       <c r="C28" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="D28" s="2" t="s">
         <v>163</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>164</v>
       </c>
       <c r="F28" t="s">
         <v>152</v>
@@ -2184,7 +2181,7 @@
       <c r="H28" t="s">
         <v>21</v>
       </c>
-      <c r="I28" s="6" t="s">
+      <c r="I28" s="2" t="s">
         <v>57</v>
       </c>
       <c r="J28" s="2" t="s">
@@ -2194,7 +2191,7 @@
         <v>23</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
@@ -2205,10 +2202,10 @@
         <v>130</v>
       </c>
       <c r="C29" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="D29" s="2" t="s">
         <v>165</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>166</v>
       </c>
       <c r="F29" t="s">
         <v>152</v>
@@ -2219,7 +2216,7 @@
       <c r="H29" t="s">
         <v>21</v>
       </c>
-      <c r="I29" s="6" t="s">
+      <c r="I29" s="2" t="s">
         <v>57</v>
       </c>
       <c r="J29" s="2" t="s">
@@ -2229,7 +2226,7 @@
         <v>23</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
@@ -2240,10 +2237,10 @@
         <v>131</v>
       </c>
       <c r="C30" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D30" s="2" t="s">
         <v>167</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>168</v>
       </c>
       <c r="F30" t="s">
         <v>152</v>
@@ -2254,7 +2251,7 @@
       <c r="H30" t="s">
         <v>21</v>
       </c>
-      <c r="I30" s="6" t="s">
+      <c r="I30" s="2" t="s">
         <v>57</v>
       </c>
       <c r="J30" s="2" t="s">
@@ -2264,7 +2261,7 @@
         <v>23</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
@@ -2275,10 +2272,10 @@
         <v>132</v>
       </c>
       <c r="C31" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D31" s="2" t="s">
         <v>169</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>170</v>
       </c>
       <c r="F31" t="s">
         <v>152</v>
@@ -2289,7 +2286,7 @@
       <c r="H31" t="s">
         <v>21</v>
       </c>
-      <c r="I31" s="6" t="s">
+      <c r="I31" s="2" t="s">
         <v>57</v>
       </c>
       <c r="J31" s="2" t="s">
@@ -2299,7 +2296,7 @@
         <v>23</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
@@ -2310,10 +2307,10 @@
         <v>133</v>
       </c>
       <c r="C32" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="D32" s="2" t="s">
         <v>171</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>172</v>
       </c>
       <c r="F32" t="s">
         <v>152</v>
@@ -2324,7 +2321,7 @@
       <c r="H32" t="s">
         <v>21</v>
       </c>
-      <c r="I32" s="6" t="s">
+      <c r="I32" s="2" t="s">
         <v>57</v>
       </c>
       <c r="J32" s="2" t="s">
@@ -2334,7 +2331,7 @@
         <v>23</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
@@ -2345,10 +2342,10 @@
         <v>134</v>
       </c>
       <c r="C33" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D33" s="2" t="s">
         <v>173</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>174</v>
       </c>
       <c r="F33" t="s">
         <v>152</v>
@@ -2359,7 +2356,7 @@
       <c r="H33" t="s">
         <v>21</v>
       </c>
-      <c r="I33" s="6" t="s">
+      <c r="I33" s="2" t="s">
         <v>57</v>
       </c>
       <c r="J33" s="2" t="s">
@@ -2369,7 +2366,7 @@
         <v>23</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
@@ -2380,10 +2377,10 @@
         <v>135</v>
       </c>
       <c r="C34" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="D34" s="2" t="s">
         <v>175</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>176</v>
       </c>
       <c r="F34" t="s">
         <v>152</v>
@@ -2394,7 +2391,7 @@
       <c r="H34" t="s">
         <v>21</v>
       </c>
-      <c r="I34" s="6" t="s">
+      <c r="I34" s="2" t="s">
         <v>57</v>
       </c>
       <c r="J34" s="2" t="s">
@@ -2404,7 +2401,7 @@
         <v>23</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
@@ -2415,10 +2412,10 @@
         <v>136</v>
       </c>
       <c r="C35" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="D35" s="2" t="s">
         <v>177</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>178</v>
       </c>
       <c r="F35" t="s">
         <v>152</v>
@@ -2429,7 +2426,7 @@
       <c r="H35" t="s">
         <v>21</v>
       </c>
-      <c r="I35" s="6" t="s">
+      <c r="I35" s="2" t="s">
         <v>57</v>
       </c>
       <c r="J35" s="2" t="s">
@@ -2439,7 +2436,7 @@
         <v>23</v>
       </c>
       <c r="L35" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
@@ -2450,10 +2447,10 @@
         <v>137</v>
       </c>
       <c r="C36" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="D36" s="2" t="s">
         <v>179</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>180</v>
       </c>
       <c r="F36" t="s">
         <v>152</v>
@@ -2464,7 +2461,7 @@
       <c r="H36" t="s">
         <v>21</v>
       </c>
-      <c r="I36" s="6" t="s">
+      <c r="I36" s="2" t="s">
         <v>57</v>
       </c>
       <c r="J36" s="2" t="s">
@@ -2474,7 +2471,7 @@
         <v>23</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
@@ -2485,10 +2482,10 @@
         <v>138</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F37" t="s">
         <v>152</v>
@@ -2499,7 +2496,7 @@
       <c r="H37" t="s">
         <v>21</v>
       </c>
-      <c r="I37" s="6" t="s">
+      <c r="I37" s="2" t="s">
         <v>57</v>
       </c>
       <c r="J37" s="2" t="s">
@@ -2509,7 +2506,7 @@
         <v>23</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
@@ -2520,10 +2517,10 @@
         <v>139</v>
       </c>
       <c r="C38" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="D38" s="2" t="s">
         <v>183</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>184</v>
       </c>
       <c r="F38" t="s">
         <v>152</v>
@@ -2534,7 +2531,7 @@
       <c r="H38" t="s">
         <v>21</v>
       </c>
-      <c r="I38" s="6" t="s">
+      <c r="I38" s="2" t="s">
         <v>57</v>
       </c>
       <c r="J38" s="2" t="s">
@@ -2544,7 +2541,7 @@
         <v>23</v>
       </c>
       <c r="L38" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.2">
@@ -2555,10 +2552,10 @@
         <v>140</v>
       </c>
       <c r="C39" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="D39" s="2" t="s">
         <v>185</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>186</v>
       </c>
       <c r="F39" t="s">
         <v>152</v>
@@ -2569,7 +2566,7 @@
       <c r="H39" t="s">
         <v>21</v>
       </c>
-      <c r="I39" s="6" t="s">
+      <c r="I39" s="2" t="s">
         <v>57</v>
       </c>
       <c r="J39" s="2" t="s">
@@ -2579,7 +2576,7 @@
         <v>23</v>
       </c>
       <c r="L39" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.2">
@@ -2590,10 +2587,10 @@
         <v>141</v>
       </c>
       <c r="C40" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D40" s="2" t="s">
         <v>187</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>188</v>
       </c>
       <c r="F40" t="s">
         <v>152</v>
@@ -2604,7 +2601,7 @@
       <c r="H40" t="s">
         <v>21</v>
       </c>
-      <c r="I40" s="6" t="s">
+      <c r="I40" s="2" t="s">
         <v>57</v>
       </c>
       <c r="J40" s="2" t="s">
@@ -2614,7 +2611,7 @@
         <v>23</v>
       </c>
       <c r="L40" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.2">
@@ -2625,10 +2622,10 @@
         <v>142</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F41" t="s">
         <v>152</v>
@@ -2639,7 +2636,7 @@
       <c r="H41" t="s">
         <v>21</v>
       </c>
-      <c r="I41" s="6" t="s">
+      <c r="I41" s="2" t="s">
         <v>57</v>
       </c>
       <c r="J41" s="2" t="s">
@@ -2649,7 +2646,7 @@
         <v>23</v>
       </c>
       <c r="L41" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.2">
@@ -2660,10 +2657,10 @@
         <v>143</v>
       </c>
       <c r="C42" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="D42" s="2" t="s">
         <v>191</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>192</v>
       </c>
       <c r="F42" t="s">
         <v>152</v>
@@ -2674,7 +2671,7 @@
       <c r="H42" t="s">
         <v>21</v>
       </c>
-      <c r="I42" s="6" t="s">
+      <c r="I42" s="2" t="s">
         <v>57</v>
       </c>
       <c r="J42" s="2" t="s">
@@ -2684,7 +2681,7 @@
         <v>23</v>
       </c>
       <c r="L42" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.2">
@@ -2695,10 +2692,10 @@
         <v>144</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F43" t="s">
         <v>152</v>
@@ -2709,7 +2706,7 @@
       <c r="H43" t="s">
         <v>21</v>
       </c>
-      <c r="I43" s="6" t="s">
+      <c r="I43" s="2" t="s">
         <v>57</v>
       </c>
       <c r="J43" s="2" t="s">
@@ -2719,7 +2716,7 @@
         <v>23</v>
       </c>
       <c r="L43" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.2">
@@ -2730,10 +2727,10 @@
         <v>145</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F44" t="s">
         <v>152</v>
@@ -2744,7 +2741,7 @@
       <c r="H44" t="s">
         <v>21</v>
       </c>
-      <c r="I44" s="6" t="s">
+      <c r="I44" s="2" t="s">
         <v>57</v>
       </c>
       <c r="J44" s="2" t="s">
@@ -2754,7 +2751,7 @@
         <v>23</v>
       </c>
       <c r="L44" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.2">
@@ -2765,10 +2762,10 @@
         <v>146</v>
       </c>
       <c r="C45" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D45" s="2" t="s">
         <v>197</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>198</v>
       </c>
       <c r="F45" t="s">
         <v>152</v>
@@ -2779,7 +2776,7 @@
       <c r="H45" t="s">
         <v>21</v>
       </c>
-      <c r="I45" s="6" t="s">
+      <c r="I45" s="2" t="s">
         <v>57</v>
       </c>
       <c r="J45" s="2" t="s">
@@ -2789,7 +2786,7 @@
         <v>23</v>
       </c>
       <c r="L45" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.2">
@@ -2800,10 +2797,10 @@
         <v>147</v>
       </c>
       <c r="C46" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="D46" s="2" t="s">
         <v>199</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>200</v>
       </c>
       <c r="F46" t="s">
         <v>152</v>
@@ -2814,7 +2811,7 @@
       <c r="H46" t="s">
         <v>21</v>
       </c>
-      <c r="I46" s="6" t="s">
+      <c r="I46" s="2" t="s">
         <v>57</v>
       </c>
       <c r="J46" s="2" t="s">
@@ -2824,7 +2821,7 @@
         <v>23</v>
       </c>
       <c r="L46" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.2">
@@ -2835,10 +2832,10 @@
         <v>148</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F47" t="s">
         <v>152</v>
@@ -2849,7 +2846,7 @@
       <c r="H47" t="s">
         <v>21</v>
       </c>
-      <c r="I47" s="6" t="s">
+      <c r="I47" s="2" t="s">
         <v>57</v>
       </c>
       <c r="J47" s="2" t="s">
@@ -2859,7 +2856,7 @@
         <v>23</v>
       </c>
       <c r="L47" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.2">
@@ -2870,10 +2867,10 @@
         <v>149</v>
       </c>
       <c r="C48" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="D48" s="2" t="s">
         <v>203</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>204</v>
       </c>
       <c r="F48" t="s">
         <v>153</v>
@@ -2884,17 +2881,17 @@
       <c r="H48" t="s">
         <v>21</v>
       </c>
-      <c r="I48" s="6" t="s">
-        <v>155</v>
+      <c r="I48" s="2" t="s">
+        <v>232</v>
       </c>
       <c r="J48" s="2" t="s">
         <v>27</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="L48" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.2">
@@ -2905,21 +2902,21 @@
         <v>150</v>
       </c>
       <c r="C49" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="D49" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="D49" s="2" t="s">
+      <c r="F49" t="s">
         <v>206</v>
       </c>
-      <c r="F49" t="s">
-        <v>207</v>
-      </c>
       <c r="G49" t="s">
         <v>12</v>
       </c>
       <c r="H49" t="s">
         <v>21</v>
       </c>
-      <c r="I49" s="6" t="s">
+      <c r="I49" s="2" t="s">
         <v>57</v>
       </c>
       <c r="J49" s="2" t="s">
@@ -2929,7 +2926,7 @@
         <v>23</v>
       </c>
       <c r="L49" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.2">

--- a/ges_health_study_app/dictionary_spanish.xlsx
+++ b/ges_health_study_app/dictionary_spanish.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sheenamartenies/Library/CloudStorage/Box-Box/Research/Projects/ges_health_study_app/ges_health_study_app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB0077AF-E7D3-C648-8717-9BA7D27B2B88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{986E9B4C-E18B-6547-B1B4-5FD9FD9E18E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="500" windowWidth="28800" windowHeight="16320" xr2:uid="{FBC012AF-A400-554A-B28E-7E1CB6FB8950}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16320" xr2:uid="{FBC012AF-A400-554A-B28E-7E1CB6FB8950}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="234">
   <si>
     <t>pct_nhb</t>
   </si>
@@ -754,6 +754,9 @@
   </si>
   <si>
     <t>Tasas por 10.000</t>
+  </si>
+  <si>
+    <t>years</t>
   </si>
 </sst>
 </file>
@@ -1168,8 +1171,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEABDE7F-51DA-E349-ABBB-2A88FDA51C20}">
   <dimension ref="A1:L62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D28" workbookViewId="0">
-      <selection activeCell="I56" sqref="I56"/>
+    <sheetView tabSelected="1" topLeftCell="C9" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2082,7 +2085,7 @@
         <v>27</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>27</v>
+        <v>233</v>
       </c>
       <c r="L25" s="2" t="s">
         <v>207</v>

--- a/ges_health_study_app/dictionary_spanish.xlsx
+++ b/ges_health_study_app/dictionary_spanish.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sheenamartenies/Library/CloudStorage/Box-Box/Research/Projects/ges_health_study_app/ges_health_study_app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{986E9B4C-E18B-6547-B1B4-5FD9FD9E18E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{934945AE-3BB4-6E40-AEAF-C3CBABE0756A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16320" xr2:uid="{FBC012AF-A400-554A-B28E-7E1CB6FB8950}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="239">
   <si>
     <t>pct_nhb</t>
   </si>
@@ -333,9 +333,6 @@
   </si>
   <si>
     <t>Porcentaje de viviendas en uso construidas antes de 1980</t>
-  </si>
-  <si>
-    <t>Las viviendas construidas antes de 1980 ponen a los niños en riesgo de exposición al plomo.</t>
   </si>
   <si>
     <t>PM2.5 ambiental promedio a nivel de barrio (2017-2021)</t>
@@ -534,132 +531,66 @@
     <t>Depresión</t>
   </si>
   <si>
-    <t>Depresión entre adultos de 18 años o más (porcentaje)</t>
-  </si>
-  <si>
-    <t>Accidente cerebrovascular entre adultos de 18 años o más (porcentaje)</t>
-  </si>
-  <si>
     <t>Accidente cerebrovascular</t>
   </si>
   <si>
     <t>Enfermedad cardíaca coronaria (ECC)</t>
   </si>
   <si>
-    <t>Enfermedad coronaria en adultos de 18 años o más (porcentaje)</t>
-  </si>
-  <si>
     <t>Problemas de sueño</t>
   </si>
   <si>
-    <t>Dormir menos de 7 horas entre adultos de 18 años o más (porcentaje)</t>
-  </si>
-  <si>
     <t>Cáncer</t>
   </si>
   <si>
-    <t>Cáncer (excluido el cáncer de piel) entre adultos de 18 años o más (porcentaje)</t>
-  </si>
-  <si>
     <t>Mala salud mental</t>
   </si>
   <si>
-    <t>La salud mental no es buena durante más de 14 días entre los adultos de más de 18 años (porcentaje)</t>
-  </si>
-  <si>
     <t>Enfermedad Pulmonar Obstructiva Crónica (EPOC)</t>
   </si>
   <si>
-    <t>Enfermedad pulmonar obstructiva crónica en adultos de 18 años o más (porcentaje)</t>
-  </si>
-  <si>
     <t>Asma adulto</t>
   </si>
   <si>
-    <t>Asma actual entre adultos de 18 años o más (porcentaje)</t>
-  </si>
-  <si>
     <t>Atención preventiva entre hombres mayores</t>
   </si>
   <si>
-    <t>Hombres adultos mayores de 65 años o más que están al día con un conjunto básico de servicios clínicos preventivos: vacuna contra la gripe el año pasado, vacuna PPV alguna vez, detección de cáncer colorrectal (porcentaje)</t>
-  </si>
-  <si>
     <t>Chequeos de rutina</t>
   </si>
   <si>
-    <t>Visitas al médico para chequeos de rutina durante el último año entre adultos de 18 años o más (porcentaje)</t>
-  </si>
-  <si>
     <t>Diabetes</t>
   </si>
   <si>
-    <t>Diabetes diagnosticada entre adultos de 18 años o más (porcentaje)</t>
-  </si>
-  <si>
-    <t>Tabaquismo actual entre adultos de 18 años o más (porcentaje)</t>
-  </si>
-  <si>
     <t>Tabaquismo</t>
   </si>
   <si>
     <t>Salud regular o mala</t>
   </si>
   <si>
-    <t>Estado de salud autoevaluado como regular o malo entre adultos de 18 años o más (porcentaje)</t>
-  </si>
-  <si>
     <t>Colesterol alto</t>
   </si>
   <si>
-    <t>Colesterol alto entre adultos de 18 años o más que se han sometido a pruebas de detección en los últimos 5 años (porcentaje)</t>
-  </si>
-  <si>
     <t>Cuidado dental</t>
   </si>
   <si>
-    <t>Visitas al dentista o clínica dental entre adultos de 18 años o más (porcentaje)</t>
-  </si>
-  <si>
-    <t>Obesidad entre adultos de 18 años o más (porcentaje)</t>
-  </si>
-  <si>
     <t>Obesidad</t>
   </si>
   <si>
     <t>Sin actividad física</t>
   </si>
   <si>
-    <t>Ninguna actividad física en el tiempo libre entre los adultos de 18 años o más (porcentaje)</t>
-  </si>
-  <si>
-    <t>Detección del cáncer de cuello uterino entre mujeres adultas de 21 a 65 años (porcentaje)</t>
-  </si>
-  <si>
     <t>Detección del cáncer de cuello uterino</t>
   </si>
   <si>
-    <t>Presión arterial alta entre adultos de 18 años o más (porcentaje)</t>
-  </si>
-  <si>
     <t>Presión arterial alta</t>
   </si>
   <si>
     <t>Atención preventiva entre mujeres mayores</t>
   </si>
   <si>
-    <t>Mujeres adultas mayores de 65 años o más que están al día con un conjunto básico de servicios clínicos preventivos: vacuna contra la gripe el año pasado, vacuna PPV alguna vez, detección de cáncer colorrectal y mamografía en los últimos 2 años (porcentaje)</t>
-  </si>
-  <si>
     <t>Detección de cáncer de colon</t>
   </si>
   <si>
-    <t>Prueba de sangre oculta en heces, sigmoidoscopia o colonoscopia entre adultos de 50 a 75 años (porcentaje)</t>
-  </si>
-  <si>
-    <t>Enfermedad renal crónica en adultos de 18 años o más</t>
-  </si>
-  <si>
     <t>Enfermedad renal crónica</t>
   </si>
   <si>
@@ -681,72 +612,6 @@
     <t>esperanza de vida al nacer (2010-2015)</t>
   </si>
   <si>
-    <t>depresión entre adultos de 18 años o más (porcentaje)</t>
-  </si>
-  <si>
-    <t>accidente cerebrovascular entre adultos de 18 años o más (porcentaje)</t>
-  </si>
-  <si>
-    <t>enfermedad coronaria en adultos de 18 años o más (porcentaje)</t>
-  </si>
-  <si>
-    <t>dormir menos de 7 horas entre adultos de 18 años o más (porcentaje)</t>
-  </si>
-  <si>
-    <t>cáncer (excluido el cáncer de piel) entre adultos de 18 años o más (porcentaje)</t>
-  </si>
-  <si>
-    <t>la salud mental no es buena durante más de 14 días entre los adultos de más de 18 años (porcentaje)</t>
-  </si>
-  <si>
-    <t>enfermedad pulmonar obstructiva crónica en adultos de 18 años o más (porcentaje)</t>
-  </si>
-  <si>
-    <t>asma actual entre adultos de 18 años o más (porcentaje)</t>
-  </si>
-  <si>
-    <t>hombres adultos mayores de 65 años o más que están al día con un conjunto básico de servicios clínicos preventivos: vacuna contra la gripe el año pasado, vacuna ppv alguna vez, detección de cáncer colorrectal (porcentaje)</t>
-  </si>
-  <si>
-    <t>visitas al médico para chequeos de rutina durante el último año entre adultos de 18 años o más (porcentaje)</t>
-  </si>
-  <si>
-    <t>diabetes diagnosticada entre adultos de 18 años o más (porcentaje)</t>
-  </si>
-  <si>
-    <t>tabaquismo actual entre adultos de 18 años o más (porcentaje)</t>
-  </si>
-  <si>
-    <t>estado de salud autoevaluado como regular o malo entre adultos de 18 años o más (porcentaje)</t>
-  </si>
-  <si>
-    <t>colesterol alto entre adultos de 18 años o más que se han sometido a pruebas de detección en los últimos 5 años (porcentaje)</t>
-  </si>
-  <si>
-    <t>visitas al dentista o clínica dental entre adultos de 18 años o más (porcentaje)</t>
-  </si>
-  <si>
-    <t>obesidad entre adultos de 18 años o más (porcentaje)</t>
-  </si>
-  <si>
-    <t>ninguna actividad física en el tiempo libre entre los adultos de 18 años o más (porcentaje)</t>
-  </si>
-  <si>
-    <t>detección del cáncer de cuello uterino entre mujeres adultas de 21 a 65 años (porcentaje)</t>
-  </si>
-  <si>
-    <t>presión arterial alta entre adultos de 18 años o más (porcentaje)</t>
-  </si>
-  <si>
-    <t>mujeres adultas mayores de 65 años o más que están al día con un conjunto básico de servicios clínicos preventivos: vacuna contra la gripe el año pasado, vacuna ppv alguna vez, detección de cáncer colorrectal y mamografía en los últimos 2 años (porcentaje)</t>
-  </si>
-  <si>
-    <t>prueba de sangre oculta en heces, sigmoidoscopia o colonoscopia entre adultos de 50 a 75 años (porcentaje)</t>
-  </si>
-  <si>
-    <t>enfermedad renal crónica en adultos de 18 años o más</t>
-  </si>
-  <si>
     <t>tasas de hospitalización por asma ajustadas por edad a 5 años por cada 10 000 personas, 2018-2022</t>
   </si>
   <si>
@@ -757,6 +622,156 @@
   </si>
   <si>
     <t>years</t>
+  </si>
+  <si>
+    <t>Prevalencia de enfermedad renal crónica en adultos de 18 años o más</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Depresión entre adultos de 18 años o más </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prevalencia de accidente cerebrovascular entre adultos de 18 años o más </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prevalencia de enfermedad coronaria en adultos de 18 años o más </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prevalencia de dormir menos de 7 horas entre adultos de 18 años o más </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prevalencia de cáncer (excluido el cáncer de piel) entre adultos de 18 años o más </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prevalencia de la salud mental no es buena durante más de 14 días entre los adultos de más de 18 años </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prevalencia de enfermedad pulmonar obstructiva crónica en adultos de 18 años o más </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prevalencia de asma actual entre adultos de 18 años o más </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prevalencia de hombres adultos mayores de 65 años o más que están al día con un conjunto básico de servicios clínicos preventivos: vacuna contra la gripe el año pasado, vacuna ppv alguna vez, detección de cáncer colorrectal </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prevalencia de visitas al médico para chequeos de rutina durante el último año entre adultos de 18 años o más </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prevalencia de diabetes diagnosticada entre adultos de 18 años o más </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prevalencia de tabaquismo actual entre adultos de 18 años o más </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prevalencia de estado de salud autoevaluado como regular o malo entre adultos de 18 años o más </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prevalencia de colesterol alto entre adultos de 18 años o más que se han sometido a pruebas de detección en los últimos 5 años </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prevalencia de visitas al dentista o clínica dental entre adultos de 18 años o más </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prevalencia de obesidad entre adultos de 18 años o más </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prevalencia de ninguna actividad física en el tiempo libre entre los adultos de 18 años o más </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prevalencia de detección del cáncer de cuello uterino entre mujeres adultas de 21 a 65 años </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prevalencia de presión arterial alta entre adultos de 18 años o más </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prevalencia de mujeres adultas mayores de 65 años o más que están al día con un conjunto básico de servicios clínicos preventivos: vacuna contra la gripe el año pasado, vacuna ppv alguna vez, detección de cáncer colorrectal y mamografía en los últimos 2 años </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prevalencia de prueba de sangre oculta en heces, sigmoidoscopia o colonoscopia entre adultos de 50 a 75 años </t>
+  </si>
+  <si>
+    <t xml:space="preserve">depresión entre adultos de 18 años o más </t>
+  </si>
+  <si>
+    <t xml:space="preserve">prevalencia de accidente cerebrovascular entre adultos de 18 años o más </t>
+  </si>
+  <si>
+    <t xml:space="preserve">prevalencia de enfermedad coronaria en adultos de 18 años o más </t>
+  </si>
+  <si>
+    <t xml:space="preserve">prevalencia de dormir menos de 7 horas entre adultos de 18 años o más </t>
+  </si>
+  <si>
+    <t xml:space="preserve">prevalencia de cáncer (excluido el cáncer de piel) entre adultos de 18 años o más </t>
+  </si>
+  <si>
+    <t xml:space="preserve">prevalencia de la salud mental no es buena durante más de 14 días entre los adultos de más de 18 años </t>
+  </si>
+  <si>
+    <t xml:space="preserve">prevalencia de enfermedad pulmonar obstructiva crónica en adultos de 18 años o más </t>
+  </si>
+  <si>
+    <t xml:space="preserve">prevalencia de asma actual entre adultos de 18 años o más </t>
+  </si>
+  <si>
+    <t xml:space="preserve">prevalencia de hombres adultos mayores de 65 años o más que están al día con un conjunto básico de servicios clínicos preventivos: vacuna contra la gripe el año pasado, vacuna ppv alguna vez, detección de cáncer colorrectal </t>
+  </si>
+  <si>
+    <t xml:space="preserve">prevalencia de visitas al médico para chequeos de rutina durante el último año entre adultos de 18 años o más </t>
+  </si>
+  <si>
+    <t xml:space="preserve">prevalencia de diabetes diagnosticada entre adultos de 18 años o más </t>
+  </si>
+  <si>
+    <t xml:space="preserve">prevalencia de tabaquismo actual entre adultos de 18 años o más </t>
+  </si>
+  <si>
+    <t xml:space="preserve">prevalencia de estado de salud autoevaluado como regular o malo entre adultos de 18 años o más </t>
+  </si>
+  <si>
+    <t xml:space="preserve">prevalencia de colesterol alto entre adultos de 18 años o más que se han sometido a pruebas de detección en los últimos 5 años </t>
+  </si>
+  <si>
+    <t xml:space="preserve">prevalencia de visitas al dentista o clínica dental entre adultos de 18 años o más </t>
+  </si>
+  <si>
+    <t xml:space="preserve">prevalencia de obesidad entre adultos de 18 años o más </t>
+  </si>
+  <si>
+    <t xml:space="preserve">prevalencia de ninguna actividad física en el tiempo libre entre los adultos de 18 años o más </t>
+  </si>
+  <si>
+    <t xml:space="preserve">prevalencia de detección del cáncer de cuello uterino entre mujeres adultas de 21 a 65 años </t>
+  </si>
+  <si>
+    <t xml:space="preserve">prevalencia de presión arterial alta entre adultos de 18 años o más </t>
+  </si>
+  <si>
+    <t xml:space="preserve">prevalencia de mujeres adultas mayores de 65 años o más que están al día con un conjunto básico de servicios clínicos preventivos: vacuna contra la gripe el año pasado, vacuna ppv alguna vez, detección de cáncer colorrectal y mamografía en los últimos 2 años </t>
+  </si>
+  <si>
+    <t xml:space="preserve">prevalencia de prueba de sangre oculta en heces, sigmoidoscopia o colonoscopia entre adultos de 50 a 75 años </t>
+  </si>
+  <si>
+    <t>prevalencia de enfermedad renal crónica en adultos de 18 años o más</t>
+  </si>
+  <si>
+    <t>Los beneficios del Programa de Asistencia Nutricional Suplementaria (SNAP) ayudan a las familias de bajos ingresos a complementar su presupuesto de comestibles.</t>
+  </si>
+  <si>
+    <t>Los números superiores a 1 indican que hay más puntos de venta de bebidas alcohólicas que tiendas de alimentos en un barrio.</t>
+  </si>
+  <si>
+    <t>Los números superiores a 1 indican que hay más sitios de cultivo de cannabis que tiendas de alimentos en un vecindario.</t>
+  </si>
+  <si>
+    <t>Los números más altos indican temperaturas más altas en la calle.</t>
+  </si>
+  <si>
+    <t>Los puntajes más altos indican vecindarios con mejor cobertura de árboles para satisfacer las necesidades de salud y cambio climático.</t>
+  </si>
+  <si>
+    <t>Las viviendas construidas antes de 1980 exponen a los niños a un mayor riesgo de exposición al plomo.</t>
   </si>
 </sst>
 </file>
@@ -1171,8 +1186,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEABDE7F-51DA-E349-ABBB-2A88FDA51C20}">
   <dimension ref="A1:L62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C9" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView tabSelected="1" topLeftCell="B20" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1181,7 +1196,7 @@
     <col min="2" max="2" width="25.33203125" style="2" customWidth="1"/>
     <col min="3" max="3" width="27.5" style="2" customWidth="1"/>
     <col min="4" max="4" width="50.1640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="23.33203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="82.5" style="2" customWidth="1"/>
     <col min="6" max="6" width="10.83203125" style="2" customWidth="1"/>
     <col min="7" max="16384" width="10.83203125" style="2"/>
   </cols>
@@ -1256,7 +1271,7 @@
         <v>23</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -1291,7 +1306,7 @@
         <v>23</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
@@ -1326,7 +1341,7 @@
         <v>23</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
@@ -1361,7 +1376,7 @@
         <v>23</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
@@ -1377,6 +1392,9 @@
       <c r="D6" s="2" t="s">
         <v>83</v>
       </c>
+      <c r="E6" s="2" t="s">
+        <v>233</v>
+      </c>
       <c r="F6" s="2" t="s">
         <v>13</v>
       </c>
@@ -1396,7 +1414,7 @@
         <v>23</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
@@ -1431,7 +1449,7 @@
         <v>23</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
@@ -1466,7 +1484,7 @@
         <v>23</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
@@ -1504,7 +1522,7 @@
         <v>23</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -1539,7 +1557,7 @@
         <v>23</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -1574,7 +1592,7 @@
         <v>23</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -1590,6 +1608,9 @@
       <c r="D12" s="2" t="s">
         <v>90</v>
       </c>
+      <c r="E12" s="2" t="s">
+        <v>234</v>
+      </c>
       <c r="F12" s="2" t="s">
         <v>56</v>
       </c>
@@ -1609,7 +1630,7 @@
         <v>27</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -1625,6 +1646,9 @@
       <c r="D13" s="2" t="s">
         <v>91</v>
       </c>
+      <c r="E13" s="2" t="s">
+        <v>235</v>
+      </c>
       <c r="F13" s="2" t="s">
         <v>56</v>
       </c>
@@ -1644,7 +1668,7 @@
         <v>27</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1679,7 +1703,7 @@
         <v>23</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
@@ -1695,6 +1719,9 @@
       <c r="D15" s="2" t="s">
         <v>93</v>
       </c>
+      <c r="E15" s="2" t="s">
+        <v>236</v>
+      </c>
       <c r="F15" s="2" t="s">
         <v>33</v>
       </c>
@@ -1714,7 +1741,7 @@
         <v>27</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
@@ -1752,7 +1779,7 @@
         <v>28</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
@@ -1768,6 +1795,9 @@
       <c r="D17" s="2" t="s">
         <v>96</v>
       </c>
+      <c r="E17" s="2" t="s">
+        <v>237</v>
+      </c>
       <c r="F17" s="2" t="s">
         <v>15</v>
       </c>
@@ -1787,7 +1817,7 @@
         <v>27</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
@@ -1804,7 +1834,7 @@
         <v>98</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>99</v>
+        <v>238</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>13</v>
@@ -1825,7 +1855,7 @@
         <v>23</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="19" x14ac:dyDescent="0.2">
@@ -1839,10 +1869,10 @@
         <v>48</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>11</v>
@@ -1854,7 +1884,7 @@
         <v>21</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J19" s="2" t="s">
         <v>27</v>
@@ -1863,7 +1893,7 @@
         <v>26</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
@@ -1877,10 +1907,10 @@
         <v>52</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>11</v>
@@ -1901,7 +1931,7 @@
         <v>54</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="19" x14ac:dyDescent="0.2">
@@ -1915,10 +1945,10 @@
         <v>49</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>11</v>
@@ -1930,7 +1960,7 @@
         <v>21</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J21" s="2" t="s">
         <v>27</v>
@@ -1939,7 +1969,7 @@
         <v>26</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
@@ -1953,10 +1983,10 @@
         <v>50</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>11</v>
@@ -1977,7 +2007,7 @@
         <v>54</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
@@ -1991,10 +2021,10 @@
         <v>51</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>11</v>
@@ -2015,7 +2045,7 @@
         <v>54</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
@@ -2029,10 +2059,10 @@
         <v>53</v>
       </c>
       <c r="D24" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>106</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>11</v>
@@ -2053,24 +2083,24 @@
         <v>55</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
+        <v>124</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>126</v>
-      </c>
       <c r="C25" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="D25" s="2" t="s">
-        <v>157</v>
-      </c>
       <c r="F25" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G25" t="s">
         <v>12</v>
@@ -2079,34 +2109,34 @@
         <v>21</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J25" s="2" t="s">
         <v>27</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>233</v>
+        <v>188</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>207</v>
+        <v>184</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B26" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>159</v>
+        <v>190</v>
       </c>
       <c r="E26" s="4"/>
       <c r="F26" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G26" t="s">
         <v>12</v>
@@ -2123,25 +2153,25 @@
       <c r="K26" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="L26" s="4" t="s">
-        <v>208</v>
+      <c r="L26" s="2" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B27" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>160</v>
+        <v>191</v>
       </c>
       <c r="F27" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G27" t="s">
         <v>12</v>
@@ -2159,24 +2189,24 @@
         <v>23</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B28" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>163</v>
+        <v>192</v>
       </c>
       <c r="F28" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G28" t="s">
         <v>12</v>
@@ -2194,24 +2224,24 @@
         <v>23</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B29" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>165</v>
+        <v>193</v>
       </c>
       <c r="F29" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G29" t="s">
         <v>12</v>
@@ -2229,24 +2259,24 @@
         <v>23</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B30" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>167</v>
+        <v>194</v>
       </c>
       <c r="F30" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G30" t="s">
         <v>12</v>
@@ -2264,24 +2294,24 @@
         <v>23</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>169</v>
+        <v>195</v>
       </c>
       <c r="F31" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G31" t="s">
         <v>12</v>
@@ -2299,24 +2329,24 @@
         <v>23</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B32" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>171</v>
+        <v>196</v>
       </c>
       <c r="F32" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G32" t="s">
         <v>12</v>
@@ -2334,24 +2364,24 @@
         <v>23</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B33" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>173</v>
+        <v>197</v>
       </c>
       <c r="F33" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G33" t="s">
         <v>12</v>
@@ -2369,24 +2399,24 @@
         <v>23</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B34" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>175</v>
+        <v>198</v>
       </c>
       <c r="F34" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G34" t="s">
         <v>12</v>
@@ -2404,24 +2434,24 @@
         <v>23</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B35" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>177</v>
+        <v>199</v>
       </c>
       <c r="F35" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G35" t="s">
         <v>12</v>
@@ -2439,24 +2469,24 @@
         <v>23</v>
       </c>
       <c r="L35" s="2" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B36" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>179</v>
+        <v>200</v>
       </c>
       <c r="F36" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G36" t="s">
         <v>12</v>
@@ -2474,24 +2504,24 @@
         <v>23</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B37" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>180</v>
+        <v>201</v>
       </c>
       <c r="F37" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G37" t="s">
         <v>12</v>
@@ -2509,24 +2539,24 @@
         <v>23</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B38" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="F38" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G38" t="s">
         <v>12</v>
@@ -2544,24 +2574,24 @@
         <v>23</v>
       </c>
       <c r="L38" s="2" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B39" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>185</v>
+        <v>203</v>
       </c>
       <c r="F39" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G39" t="s">
         <v>12</v>
@@ -2579,24 +2609,24 @@
         <v>23</v>
       </c>
       <c r="L39" s="2" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="F40" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G40" t="s">
         <v>12</v>
@@ -2614,24 +2644,24 @@
         <v>23</v>
       </c>
       <c r="L40" s="2" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B41" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="F41" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G41" t="s">
         <v>12</v>
@@ -2649,24 +2679,24 @@
         <v>23</v>
       </c>
       <c r="L41" s="2" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B42" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>190</v>
+        <v>173</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>191</v>
+        <v>206</v>
       </c>
       <c r="F42" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G42" t="s">
         <v>12</v>
@@ -2684,24 +2714,24 @@
         <v>23</v>
       </c>
       <c r="L42" s="2" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B43" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>193</v>
+        <v>174</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>192</v>
+        <v>207</v>
       </c>
       <c r="F43" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G43" t="s">
         <v>12</v>
@@ -2719,24 +2749,24 @@
         <v>23</v>
       </c>
       <c r="L43" s="2" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B44" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>195</v>
+        <v>175</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>194</v>
+        <v>208</v>
       </c>
       <c r="F44" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G44" t="s">
         <v>12</v>
@@ -2754,24 +2784,24 @@
         <v>23</v>
       </c>
       <c r="L44" s="2" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B45" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="F45" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G45" t="s">
         <v>12</v>
@@ -2789,24 +2819,24 @@
         <v>23</v>
       </c>
       <c r="L45" s="2" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B46" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="F46" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G46" t="s">
         <v>12</v>
@@ -2824,24 +2854,24 @@
         <v>23</v>
       </c>
       <c r="L46" s="2" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B47" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>201</v>
+        <v>178</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="F47" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G47" t="s">
         <v>12</v>
@@ -2859,24 +2889,24 @@
         <v>23</v>
       </c>
       <c r="L47" s="2" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B48" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>202</v>
+        <v>179</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>203</v>
+        <v>180</v>
       </c>
       <c r="F48" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G48" t="s">
         <v>12</v>
@@ -2885,33 +2915,33 @@
         <v>21</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>232</v>
+        <v>187</v>
       </c>
       <c r="J48" s="2" t="s">
         <v>27</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="L48" s="2" t="s">
-        <v>230</v>
+        <v>185</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B49" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>204</v>
+        <v>181</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>205</v>
+        <v>182</v>
       </c>
       <c r="F49" t="s">
-        <v>206</v>
+        <v>183</v>
       </c>
       <c r="G49" t="s">
         <v>12</v>
@@ -2929,7 +2959,7 @@
         <v>23</v>
       </c>
       <c r="L49" s="2" t="s">
-        <v>231</v>
+        <v>186</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.2">

--- a/ges_health_study_app/dictionary_spanish.xlsx
+++ b/ges_health_study_app/dictionary_spanish.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sheenamartenies/Library/CloudStorage/Box-Box/Research/Projects/ges_health_study_app/ges_health_study_app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{934945AE-3BB4-6E40-AEAF-C3CBABE0756A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F4FD68E-FFCC-F546-9849-F908E275E68C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16320" xr2:uid="{FBC012AF-A400-554A-B28E-7E1CB6FB8950}"/>
+    <workbookView xWindow="-38180" yWindow="1120" windowWidth="36600" windowHeight="18120" xr2:uid="{FBC012AF-A400-554A-B28E-7E1CB6FB8950}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="245">
   <si>
     <t>pct_nhb</t>
   </si>
@@ -393,9 +393,6 @@
   </si>
   <si>
     <t>porcentaje de hogares a 10 minutos a pie de una tienda de comestibles</t>
-  </si>
-  <si>
-    <t>clasificación percentil promedio de temperaturas superficiales de las calles del barrio</t>
   </si>
   <si>
     <t>niveles de ruido promedio anual (dBA) LAeq 24 horas</t>
@@ -772,6 +769,27 @@
   </si>
   <si>
     <t>Las viviendas construidas antes de 1980 exponen a los niños a un mayor riesgo de exposición al plomo.</t>
+  </si>
+  <si>
+    <t>clasificación percentil promedio de temperaturas superficiales de las calles</t>
+  </si>
+  <si>
+    <t>PM2.5 ambiental promedio (2017-2021)</t>
+  </si>
+  <si>
+    <t>O3 ambiental promedio (2017-2021)</t>
+  </si>
+  <si>
+    <t>PM10 ambiental promedio (2017-2021)</t>
+  </si>
+  <si>
+    <t>NO2 ambiental promedio (2017-2021)</t>
+  </si>
+  <si>
+    <t>SO2 ambiental promedio (2017-2021)</t>
+  </si>
+  <si>
+    <t>CO ambiental promedio (2017-2021)</t>
   </si>
 </sst>
 </file>
@@ -1186,8 +1204,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEABDE7F-51DA-E349-ABBB-2A88FDA51C20}">
   <dimension ref="A1:L62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B20" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1393,7 +1411,7 @@
         <v>83</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>13</v>
@@ -1609,7 +1627,7 @@
         <v>90</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>56</v>
@@ -1647,7 +1665,7 @@
         <v>91</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>56</v>
@@ -1720,7 +1738,7 @@
         <v>93</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>33</v>
@@ -1741,7 +1759,7 @@
         <v>27</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>119</v>
+        <v>238</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
@@ -1779,7 +1797,7 @@
         <v>28</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
@@ -1796,7 +1814,7 @@
         <v>96</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>15</v>
@@ -1817,7 +1835,7 @@
         <v>27</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
@@ -1834,7 +1852,7 @@
         <v>98</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>13</v>
@@ -1855,7 +1873,7 @@
         <v>23</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="19" x14ac:dyDescent="0.2">
@@ -1884,7 +1902,7 @@
         <v>21</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J19" s="2" t="s">
         <v>27</v>
@@ -1893,7 +1911,7 @@
         <v>26</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>99</v>
+        <v>239</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
@@ -1931,7 +1949,7 @@
         <v>54</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>100</v>
+        <v>240</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="19" x14ac:dyDescent="0.2">
@@ -1960,7 +1978,7 @@
         <v>21</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J21" s="2" t="s">
         <v>27</v>
@@ -1969,7 +1987,7 @@
         <v>26</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>101</v>
+        <v>241</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
@@ -2007,7 +2025,7 @@
         <v>54</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>102</v>
+        <v>242</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
@@ -2045,7 +2063,7 @@
         <v>54</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>103</v>
+        <v>243</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
@@ -2083,24 +2101,24 @@
         <v>55</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>104</v>
+        <v>244</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
+        <v>123</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>125</v>
-      </c>
       <c r="C25" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="D25" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="F25" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G25" t="s">
         <v>12</v>
@@ -2109,34 +2127,34 @@
         <v>21</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J25" s="2" t="s">
         <v>27</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B26" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E26" s="4"/>
       <c r="F26" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G26" t="s">
         <v>12</v>
@@ -2154,24 +2172,24 @@
         <v>23</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B27" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F27" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G27" t="s">
         <v>12</v>
@@ -2189,24 +2207,24 @@
         <v>23</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B28" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F28" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G28" t="s">
         <v>12</v>
@@ -2224,24 +2242,24 @@
         <v>23</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B29" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F29" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G29" t="s">
         <v>12</v>
@@ -2259,24 +2277,24 @@
         <v>23</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B30" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F30" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G30" t="s">
         <v>12</v>
@@ -2294,24 +2312,24 @@
         <v>23</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F31" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G31" t="s">
         <v>12</v>
@@ -2329,24 +2347,24 @@
         <v>23</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B32" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F32" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G32" t="s">
         <v>12</v>
@@ -2364,24 +2382,24 @@
         <v>23</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B33" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F33" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G33" t="s">
         <v>12</v>
@@ -2399,24 +2417,24 @@
         <v>23</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B34" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F34" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G34" t="s">
         <v>12</v>
@@ -2434,24 +2452,24 @@
         <v>23</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B35" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F35" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G35" t="s">
         <v>12</v>
@@ -2469,24 +2487,24 @@
         <v>23</v>
       </c>
       <c r="L35" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B36" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F36" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G36" t="s">
         <v>12</v>
@@ -2504,24 +2522,24 @@
         <v>23</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B37" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F37" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G37" t="s">
         <v>12</v>
@@ -2539,24 +2557,24 @@
         <v>23</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B38" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F38" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G38" t="s">
         <v>12</v>
@@ -2574,24 +2592,24 @@
         <v>23</v>
       </c>
       <c r="L38" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B39" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F39" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G39" t="s">
         <v>12</v>
@@ -2609,24 +2627,24 @@
         <v>23</v>
       </c>
       <c r="L39" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B40" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F40" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G40" t="s">
         <v>12</v>
@@ -2644,24 +2662,24 @@
         <v>23</v>
       </c>
       <c r="L40" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B41" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F41" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G41" t="s">
         <v>12</v>
@@ -2679,24 +2697,24 @@
         <v>23</v>
       </c>
       <c r="L41" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B42" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F42" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G42" t="s">
         <v>12</v>
@@ -2714,24 +2732,24 @@
         <v>23</v>
       </c>
       <c r="L42" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B43" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F43" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G43" t="s">
         <v>12</v>
@@ -2749,24 +2767,24 @@
         <v>23</v>
       </c>
       <c r="L43" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B44" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F44" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G44" t="s">
         <v>12</v>
@@ -2784,24 +2802,24 @@
         <v>23</v>
       </c>
       <c r="L44" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B45" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F45" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G45" t="s">
         <v>12</v>
@@ -2819,24 +2837,24 @@
         <v>23</v>
       </c>
       <c r="L45" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B46" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F46" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G46" t="s">
         <v>12</v>
@@ -2854,24 +2872,24 @@
         <v>23</v>
       </c>
       <c r="L46" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B47" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F47" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G47" t="s">
         <v>12</v>
@@ -2889,24 +2907,24 @@
         <v>23</v>
       </c>
       <c r="L47" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B48" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C48" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="D48" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="D48" s="2" t="s">
-        <v>180</v>
-      </c>
       <c r="F48" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G48" t="s">
         <v>12</v>
@@ -2915,34 +2933,34 @@
         <v>21</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="J48" s="2" t="s">
         <v>27</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="L48" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C49" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="D49" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="D49" s="2" t="s">
+      <c r="F49" t="s">
         <v>182</v>
       </c>
-      <c r="F49" t="s">
-        <v>183</v>
-      </c>
       <c r="G49" t="s">
         <v>12</v>
       </c>
@@ -2959,7 +2977,7 @@
         <v>23</v>
       </c>
       <c r="L49" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.2">
